--- a/output/preliminary_Table S4.xlsx
+++ b/output/preliminary_Table S4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,11 +368,6 @@
           <t>gene_symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>cellcolour</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -385,11 +380,6 @@
           <t>klu</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -402,11 +392,6 @@
           <t>E(spl)mbeta-HLH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -419,11 +404,6 @@
           <t>CG42747</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,11 +416,6 @@
           <t>Dtg</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -453,11 +428,6 @@
           <t>CG14457</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -470,11 +440,6 @@
           <t>CG30090</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -487,11 +452,6 @@
           <t>CG34236</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -504,11 +464,6 @@
           <t>lncRNA:CR43270</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -521,11 +476,6 @@
           <t>CDase</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -538,11 +488,6 @@
           <t>E(spl)m3-HLH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -555,11 +500,6 @@
           <t>Lrch</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>#56B2E9</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -572,11 +512,6 @@
           <t>alphaTry</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -589,11 +524,6 @@
           <t>Amy-d</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -606,11 +536,6 @@
           <t>Amy-p</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -623,11 +548,6 @@
           <t>betaTry</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -640,11 +560,6 @@
           <t>ck</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -657,11 +572,6 @@
           <t>LManV</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -674,11 +584,6 @@
           <t>LManVI</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -691,11 +596,6 @@
           <t>Myo31DF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -708,11 +608,6 @@
           <t>nub</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -725,11 +620,6 @@
           <t>Ssk</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -742,11 +632,6 @@
           <t>iotaTry</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -759,11 +644,6 @@
           <t>CG14219</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -776,11 +656,6 @@
           <t>CG13492</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -793,11 +668,6 @@
           <t>CG10911</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -810,11 +680,6 @@
           <t>Mal-A4</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -827,11 +692,6 @@
           <t>Acbp3</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -844,11 +704,6 @@
           <t>Burs</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -861,11 +716,6 @@
           <t>Mal-A3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>#009E73</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -878,11 +728,6 @@
           <t>AstA</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -895,11 +740,6 @@
           <t>Mip</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -912,11 +752,6 @@
           <t>AstC</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -929,11 +764,6 @@
           <t>Dh31</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -946,11 +776,6 @@
           <t>dimm</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -963,11 +788,6 @@
           <t>mirr</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -980,11 +800,6 @@
           <t>NPF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -997,11 +812,6 @@
           <t>phyl</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1014,11 +824,6 @@
           <t>Poxn</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1031,11 +836,6 @@
           <t>pros</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1048,11 +848,6 @@
           <t>Ptx1</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1065,11 +860,6 @@
           <t>sina</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1082,11 +872,6 @@
           <t>tap</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1099,11 +884,6 @@
           <t>Tk</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1116,11 +896,6 @@
           <t>CG34386</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1133,11 +908,6 @@
           <t>TrpA1</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1150,11 +920,6 @@
           <t>Orcokinin</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1167,11 +932,6 @@
           <t>CG7191</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1184,11 +944,6 @@
           <t>CngA</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1201,11 +956,6 @@
           <t>CCHa1</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1218,11 +968,6 @@
           <t>Sytbeta</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>#CC79A7</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1235,11 +980,6 @@
           <t>Dl</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>#D55E00</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1252,11 +992,6 @@
           <t>mira</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>#D55E00</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1269,11 +1004,6 @@
           <t>polo</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>#D55E00</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1286,11 +1016,6 @@
           <t>spdo</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>#D55E00</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1303,11 +1028,6 @@
           <t>zfh2</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>#D55E00</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1320,11 +1040,6 @@
           <t>mew</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>#D55E00</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1335,11 +1050,6 @@
       <c r="B58" t="inlineStr">
         <is>
           <t>Trim9</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>#D55E00</t>
         </is>
       </c>
     </row>
